--- a/output_analysis/SPREAD_4_SEC_0.5_ENERGY_2.0_EV-FACTOR_22_EV_50_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/SPREAD_4_SEC_0.5_ENERGY_2.0_EV-FACTOR_22_EV_50_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,600 +434,540 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2 94</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2 13 15 45 79 105</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>76</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>137</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17 22 34 51 95</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10 19 44 84 93 197 220</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>133</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21 71 134</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14 56 60 62 91 233</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>101</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>127</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>32 53 127 151</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18 23 65 75 207</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F5" t="n">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>136</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>57 59 70 80 128 159 239</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>155</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>23</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3 4 6 10 16 216</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>159</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7 14 31 37 91 199 218</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>145</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12 48 186</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>102</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15 93 142</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>105</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18 55 89 98 101 118 156</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>171</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20 50 77 109 215</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>102</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>21</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23 103 163</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>97</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>62 162 171 246 275</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>110</v>
+      </c>
+      <c r="E14" t="n">
+        <v>98</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>90 138 145</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>106</v>
+      </c>
+      <c r="E15" t="n">
+        <v>98</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>100 119 158 164 288</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>75</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1 11 28 30 69 133</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>165</v>
+      </c>
+      <c r="E17" t="n">
+        <v>98</v>
+      </c>
+      <c r="F17" t="n">
+        <v>21</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9 92 97 143</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D18" t="n">
+        <v>105</v>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21 70</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>61</v>
-      </c>
-      <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1 76</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>74</v>
-      </c>
-      <c r="G7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5 9 20 31 33 92 110 112 148</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>183</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H8" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6 28 41</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>77</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17 59 72 80</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" t="n">
-        <v>141</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100</v>
-      </c>
-      <c r="H10" t="n">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>22 71 100 102 293 299</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F11" t="n">
-        <v>103</v>
-      </c>
-      <c r="G11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H11" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3 12 16 87 99 125</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" t="n">
-        <v>141</v>
-      </c>
-      <c r="G12" t="n">
-        <v>100</v>
-      </c>
-      <c r="H12" t="n">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>25 29 36 37 40 90 120</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>98</v>
-      </c>
-      <c r="F13" t="n">
-        <v>144</v>
-      </c>
-      <c r="G13" t="n">
-        <v>98</v>
-      </c>
-      <c r="H13" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>34 38 42</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>100</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>100</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>43 48 106 137</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>100</v>
-      </c>
-      <c r="F15" t="n">
-        <v>70</v>
-      </c>
-      <c r="G15" t="n">
-        <v>100</v>
-      </c>
-      <c r="H15" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>46 57 63 85 115</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>100</v>
-      </c>
-      <c r="F16" t="n">
-        <v>112</v>
-      </c>
-      <c r="G16" t="n">
-        <v>100</v>
-      </c>
-      <c r="H16" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>15</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7 8 11 27 39 240</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>100</v>
-      </c>
-      <c r="F17" t="n">
-        <v>95</v>
-      </c>
-      <c r="G17" t="n">
-        <v>100</v>
-      </c>
-      <c r="H17" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>26 32 74 146</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
-        <v>89</v>
-      </c>
-      <c r="G18" t="n">
-        <v>100</v>
-      </c>
-      <c r="H18" t="n">
-        <v>89</v>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>17</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>13 66 99 110 148</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>47 49 97 111 169</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>113</v>
       </c>
       <c r="E19" t="n">
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
-      </c>
-      <c r="H19" t="n">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>25 60 102 137 259</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>134</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="n">
-        <v>18</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>51 55 67 88 127 151 195</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>98</v>
-      </c>
-      <c r="F20" t="n">
-        <v>143</v>
-      </c>
       <c r="G20" t="n">
-        <v>98</v>
-      </c>
-      <c r="H20" t="n">
-        <v>143</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>19</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>35 40 297</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>53 98 103 186 190 194 213</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>109</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>100</v>
-      </c>
-      <c r="H21" t="n">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
